--- a/biology/Botanique/Pyrola_asarifolia/Pyrola_asarifolia.xlsx
+++ b/biology/Botanique/Pyrola_asarifolia/Pyrola_asarifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrola asarifolia  est une espèce de plante à fleurs de la famille des Ericaceae originaire de l'ouest de l'Amérique du Nord. On le trouve principalement sur les lisières des forêts à latitude moyenne dans le nord-ouest du Pacifique et le nord de la Californie.
 </t>
@@ -511,13 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyrola asarifolia est une plante herbacée vivace et glabres à rhizomes étendus, la tige scapose (10-30 cm)[3].
-Feuilles
-Feuilles basales, nombreuses, les limbes arrondis à obovales, coriaces, entiers à dentés, de 3 à 8 cm. long et large, vert foncé et brillant sur la face supérieure, légèrement violacé en dessous, non marbré ; pétioles au moins aussi longs que les limbes[3].
-Fleurs
-Fleurs 10-25 en grappe allongée ; pédicelles de 3-8 mm de longueur, sous-tendus par des bractées linéaires-lancéolées d'égale longueur ; fleurs 10-15 mm de diamètre; calice à cinq lobes pointus de 2,5-4 mm de longueur ; cinq pétales distincts long de 5-7 mm et de couleur rosâtre à rose ou rouge violacé ; dix étamines repliées vers l'intérieur, les anthères sans arêtes, inversées, s'ouvrant par deux pores sur des tubes courts ; style fortement courbé de 5-8 mm de longueur avec un collier sous le stigmate ; ovaire supérieur. Le fruit est une capsule à cinq alvéoles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyrola asarifolia est une plante herbacée vivace et glabres à rhizomes étendus, la tige scapose (10-30 cm).
 </t>
         </is>
       </c>
@@ -543,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Largement distribuée des deux côtés de la crête de la chaîne des Cascades à Washington ; et de l'Alaska à la Californie, à l'est jusqu'aux montagnes Rocheuses, au nord des Grandes Plaines, à la région des Grands Lacs et au nord-est de l'Amérique du Nord[3].
-Sol humide dans les bois et les forêts, de basse à moyenne altitude[3].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feuilles basales, nombreuses, les limbes arrondis à obovales, coriaces, entiers à dentés, de 3 à 8 cm. long et large, vert foncé et brillant sur la face supérieure, légèrement violacé en dessous, non marbré ; pétioles au moins aussi longs que les limbes.
 </t>
         </is>
       </c>
@@ -575,12 +590,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs 10-25 en grappe allongée ; pédicelles de 3-8 mm de longueur, sous-tendus par des bractées linéaires-lancéolées d'égale longueur ; fleurs 10-15 mm de diamètre; calice à cinq lobes pointus de 2,5-4 mm de longueur ; cinq pétales distincts long de 5-7 mm et de couleur rosâtre à rose ou rouge violacé ; dix étamines repliées vers l'intérieur, les anthères sans arêtes, inversées, s'ouvrant par deux pores sur des tubes courts ; style fortement courbé de 5-8 mm de longueur avec un collier sous le stigmate ; ovaire supérieur. Le fruit est une capsule à cinq alvéoles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pyrola_asarifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrola_asarifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Largement distribuée des deux côtés de la crête de la chaîne des Cascades à Washington ; et de l'Alaska à la Californie, à l'est jusqu'aux montagnes Rocheuses, au nord des Grandes Plaines, à la région des Grands Lacs et au nord-est de l'Amérique du Nord.
+Sol humide dans les bois et les forêts, de basse à moyenne altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pyrola_asarifolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrola_asarifolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 octobre 2021)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 octobre 2021) :
 sous-espèce Pyrola asarifolia subsp. americana (Sweet) Křísa
 sous-espèce Pyrola asarifolia subsp. asarifolia
 sous-espèce Pyrola asarifolia subsp. bracteata (Hook.) Haber
